--- a/biology/Zoologie/Eukoenenia_florenciae/Eukoenenia_florenciae.xlsx
+++ b/biology/Zoologie/Eukoenenia_florenciae/Eukoenenia_florenciae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eukoenenia florenciae est une espèce de palpigrades de la famille des Eukoeneniidae.
 </t>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Argentine, au Paraguay, en Colombie, aux États-Unis, en Espagne, en France, en Slovaquie, au Népal et en Australie[1],[2].
-Les spécimens observés aux Bermudes, au Maroc, en Égypte, à La Réunion, à l'île Maurice et à Madagascar comme Eukoenenia hanseni appartiennent à cette espèce pour Bruno Condé[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Argentine, au Paraguay, en Colombie, aux États-Unis, en Espagne, en France, en Slovaquie, au Népal et en Australie,.
+Les spécimens observés aux Bermudes, au Maroc, en Égypte, à La Réunion, à l'île Maurice et à Madagascar comme Eukoenenia hanseni appartiennent à cette espèce pour Bruno Condé.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les femelles  mesurent de 2 à 2,3 mm[4].
-Cette espèce n'est connue que par des femelles parthénogénétiques[5],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les femelles  mesurent de 2 à 2,3 mm.
+Cette espèce n'est connue que par des femelles parthénogénétiques,.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Florence Rhine[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Florence Rhine.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Rucker, 1903 : A new Koenenia from Texas. Quarterly Journal of Microscopical Science (n.s.), vol. 47, p. 215‒231 (texte intégral).</t>
         </is>
